--- a/code/results/signal_reconstruction/ipc.xlsx
+++ b/code/results/signal_reconstruction/ipc.xlsx
@@ -14,9 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>IPC</t>
+  </si>
+  <si>
+    <t>Path</t>
   </si>
 </sst>
 </file>
@@ -381,6 +384,9 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -390,7 +396,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.257601522203509</v>
+        <v>2.487842556667488</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -398,7 +404,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.912206171107281</v>
+        <v>2.49074680761321</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -406,7 +412,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.417071383955462</v>
+        <v>2.387410944463444</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -414,7 +420,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.37256172634126</v>
+        <v>2.381252895741406</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -422,7 +428,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.009878273809013</v>
+        <v>2.077716119191529</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -430,7 +436,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.772157148695416</v>
+        <v>2.073477671924134</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -438,7 +444,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.471863330024794</v>
+        <v>2.089003324738202</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -446,7 +452,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.887163615039745</v>
+        <v>2.088002545352321</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -454,7 +460,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.231735612246589</v>
+        <v>2.118193458516476</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -462,7 +468,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.337100430608033</v>
+        <v>2.125606919169309</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -470,7 +476,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.120803360646338</v>
+        <v>2.16028060440714</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -478,7 +484,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.881984088847198</v>
+        <v>2.139607640507212</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -486,7 +492,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.356206959122636</v>
+        <v>2.365426027882202</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -494,7 +500,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.308600606283339</v>
+        <v>2.294032299898257</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -502,7 +508,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.828882698960176</v>
+        <v>2.300343855353062</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -510,7 +516,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.899323044661441</v>
+        <v>2.078483567790478</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -518,7 +524,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.829516802840873</v>
+        <v>2.1169956413529</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -526,7 +532,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.217183316129239</v>
+        <v>2.068225692092291</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -534,7 +540,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.954382432835233</v>
+        <v>2.066854092554542</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -542,7 +548,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.230949646818471</v>
+        <v>2.09851492523725</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -550,7 +556,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.381768736221267</v>
+        <v>2.105226826843285</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -558,7 +564,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.514117143608709</v>
+        <v>2.279505060492302</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -566,7 +572,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.922209497989299</v>
+        <v>2.295387219711106</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -574,7 +580,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.77443490839948</v>
+        <v>2.276925417356452</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -582,7 +588,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>1.994786334153217</v>
+        <v>2.227327930608984</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -590,7 +596,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>1.254631075851807</v>
+        <v>2.082177426834825</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -598,7 +604,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>2.029427277625953</v>
+        <v>2.073989146208124</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -606,7 +612,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>1.606911692503106</v>
+        <v>2.066287352165516</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -614,7 +620,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>1.047482662891535</v>
+        <v>1.777900528508751</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -622,7 +628,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>1.107454012405563</v>
+        <v>1.744290951808829</v>
       </c>
     </row>
   </sheetData>

--- a/code/results/signal_reconstruction/ipc.xlsx
+++ b/code/results/signal_reconstruction/ipc.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -383,7 +383,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2.684113465526756</v>
+        <v>2.356563929135413</v>
       </c>
     </row>
     <row r="3">
@@ -391,7 +391,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2.672089081149337</v>
+        <v>2.239645347542925</v>
       </c>
     </row>
     <row r="4">
@@ -399,7 +399,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2.330192913988424</v>
+        <v>2.309403061943285</v>
       </c>
     </row>
     <row r="5">
@@ -407,7 +407,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>2.332184024678669</v>
+        <v>2.324704126691745</v>
       </c>
     </row>
     <row r="6">
@@ -415,7 +415,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1.853317296024453</v>
+        <v>2.393542322469567</v>
       </c>
     </row>
     <row r="7">
@@ -423,7 +423,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1.871091016639834</v>
+        <v>2.305544188113036</v>
       </c>
     </row>
     <row r="8">
@@ -431,7 +431,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1.637332800866184</v>
+        <v>2.144322488314476</v>
       </c>
     </row>
     <row r="9">
@@ -439,7 +439,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1.590351900498092</v>
+        <v>2.164041425356085</v>
       </c>
     </row>
     <row r="10">
@@ -447,7 +447,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1.543167688187862</v>
+        <v>1.893541085346338</v>
       </c>
     </row>
     <row r="11">
@@ -455,7 +455,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1.537260693148629</v>
+        <v>1.898704885206921</v>
       </c>
     </row>
     <row r="12">
@@ -463,7 +463,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>2.238957938959846</v>
+        <v>1.88122482540276</v>
       </c>
     </row>
     <row r="13">
@@ -471,7 +471,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>2.235809834818498</v>
+        <v>1.861186286886721</v>
       </c>
     </row>
     <row r="14">
@@ -479,7 +479,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>2.089924751506871</v>
+        <v>2.060335824929814</v>
       </c>
     </row>
     <row r="15">
@@ -487,7 +487,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1.93233505617932</v>
+        <v>1.993352207562557</v>
       </c>
     </row>
     <row r="16">
@@ -495,7 +495,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1.802403103241034</v>
+        <v>2.188624724064947</v>
       </c>
     </row>
     <row r="17">
@@ -503,7 +503,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1.848522481036963</v>
+        <v>1.879312442730859</v>
       </c>
     </row>
     <row r="18">
@@ -511,7 +511,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1.595396335151421</v>
+        <v>1.833104773380641</v>
       </c>
     </row>
     <row r="19">
@@ -519,7 +519,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>1.496264619170726</v>
+        <v>1.831963517995406</v>
       </c>
     </row>
     <row r="20">
@@ -527,7 +527,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1.883631231836211</v>
+        <v>1.756092968114026</v>
       </c>
     </row>
     <row r="21">
@@ -535,95 +535,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1.62770466753766</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>1.496520620892579</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>2.096290445380153</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>1.840403104516133</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="n">
-        <v>1.78590320530626</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="n">
-        <v>1.893587668897123</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="n">
-        <v>1.712753653061477</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="n">
-        <v>1.559835976045428</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="n">
-        <v>2.026190401790005</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="n">
-        <v>1.811018463233187</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="n">
-        <v>1.799701143386335</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B32" t="n">
-        <v>2.807722093806623</v>
+        <v>1.485188413353329</v>
       </c>
     </row>
   </sheetData>

--- a/code/results/signal_reconstruction/ipc.xlsx
+++ b/code/results/signal_reconstruction/ipc.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -383,7 +383,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2.356563929135413</v>
+        <v>2.609749512915265</v>
       </c>
     </row>
     <row r="3">
@@ -391,7 +391,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2.239645347542925</v>
+        <v>2.599760133123742</v>
       </c>
     </row>
     <row r="4">
@@ -399,7 +399,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2.309403061943285</v>
+        <v>2.381642940183032</v>
       </c>
     </row>
     <row r="5">
@@ -407,7 +407,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>2.324704126691745</v>
+        <v>2.376115025220395</v>
       </c>
     </row>
     <row r="6">
@@ -415,7 +415,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>2.393542322469567</v>
+        <v>2.465060601522592</v>
       </c>
     </row>
     <row r="7">
@@ -423,7 +423,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2.305544188113036</v>
+        <v>2.466574831877659</v>
       </c>
     </row>
     <row r="8">
@@ -431,7 +431,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>2.144322488314476</v>
+        <v>2.086868822678343</v>
       </c>
     </row>
     <row r="9">
@@ -439,7 +439,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>2.164041425356085</v>
+        <v>2.083833551784116</v>
       </c>
     </row>
     <row r="10">
@@ -447,7 +447,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1.893541085346338</v>
+        <v>1.904062509730511</v>
       </c>
     </row>
     <row r="11">
@@ -455,7 +455,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1.898704885206921</v>
+        <v>1.900953431346346</v>
       </c>
     </row>
     <row r="12">
@@ -463,7 +463,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1.88122482540276</v>
+        <v>1.828997671118578</v>
       </c>
     </row>
     <row r="13">
@@ -471,7 +471,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1.861186286886721</v>
+        <v>1.83194526512898</v>
       </c>
     </row>
     <row r="14">
@@ -479,7 +479,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>2.060335824929814</v>
+        <v>2.331243515450478</v>
       </c>
     </row>
     <row r="15">
@@ -487,7 +487,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1.993352207562557</v>
+        <v>2.332827623620034</v>
       </c>
     </row>
     <row r="16">
@@ -495,7 +495,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>2.188624724064947</v>
+        <v>2.079387492158941</v>
       </c>
     </row>
     <row r="17">
@@ -503,7 +503,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1.879312442730859</v>
+        <v>1.878180692744194</v>
       </c>
     </row>
     <row r="18">
@@ -511,7 +511,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1.833104773380641</v>
+        <v>1.783929705295721</v>
       </c>
     </row>
     <row r="19">
@@ -519,7 +519,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>1.831963517995406</v>
+        <v>1.976959778621488</v>
       </c>
     </row>
     <row r="20">
@@ -527,7 +527,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1.756092968114026</v>
+        <v>1.856864716022876</v>
       </c>
     </row>
     <row r="21">
@@ -535,7 +535,15 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1.485188413353329</v>
+        <v>1.795273704746372</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B22" t="n">
+        <v>2.908958354580876</v>
       </c>
     </row>
   </sheetData>

--- a/code/results/signal_reconstruction/ipc.xlsx
+++ b/code/results/signal_reconstruction/ipc.xlsx
@@ -383,7 +383,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2.609749512915265</v>
+        <v>2.184313988853944</v>
       </c>
     </row>
     <row r="3">
@@ -391,7 +391,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2.599760133123742</v>
+        <v>1.886159094700809</v>
       </c>
     </row>
     <row r="4">
@@ -399,7 +399,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2.381642940183032</v>
+        <v>2.161741777228566</v>
       </c>
     </row>
     <row r="5">
@@ -407,7 +407,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>2.376115025220395</v>
+        <v>2.134971957482482</v>
       </c>
     </row>
     <row r="6">
@@ -415,7 +415,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>2.465060601522592</v>
+        <v>2.265207983438145</v>
       </c>
     </row>
     <row r="7">
@@ -423,7 +423,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2.466574831877659</v>
+        <v>2.388832565585126</v>
       </c>
     </row>
     <row r="8">
@@ -431,7 +431,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>2.086868822678343</v>
+        <v>1.832837670377314</v>
       </c>
     </row>
     <row r="9">
@@ -439,7 +439,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>2.083833551784116</v>
+        <v>1.672161674023858</v>
       </c>
     </row>
     <row r="10">
@@ -447,7 +447,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1.904062509730511</v>
+        <v>1.521127160740514</v>
       </c>
     </row>
     <row r="11">
@@ -455,7 +455,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1.900953431346346</v>
+        <v>1.634850098626581</v>
       </c>
     </row>
     <row r="12">
@@ -463,7 +463,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1.828997671118578</v>
+        <v>1.633760465320453</v>
       </c>
     </row>
     <row r="13">
@@ -471,7 +471,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1.83194526512898</v>
+        <v>1.470056583249274</v>
       </c>
     </row>
     <row r="14">
@@ -479,7 +479,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>2.331243515450478</v>
+        <v>2.059414418759483</v>
       </c>
     </row>
     <row r="15">
@@ -487,7 +487,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>2.332827623620034</v>
+        <v>2.069838129682612</v>
       </c>
     </row>
     <row r="16">
@@ -495,7 +495,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>2.079387492158941</v>
+        <v>1.676471650687426</v>
       </c>
     </row>
     <row r="17">
@@ -503,7 +503,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1.878180692744194</v>
+        <v>1.669251038708748</v>
       </c>
     </row>
     <row r="18">
@@ -511,7 +511,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1.783929705295721</v>
+        <v>1.432430522853284</v>
       </c>
     </row>
     <row r="19">
@@ -519,7 +519,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>1.976959778621488</v>
+        <v>1.860164591717093</v>
       </c>
     </row>
     <row r="20">
@@ -527,7 +527,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1.856864716022876</v>
+        <v>1.752263920085888</v>
       </c>
     </row>
     <row r="21">
@@ -535,7 +535,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1.795273704746372</v>
+        <v>1.689741302980548</v>
       </c>
     </row>
     <row r="22">
@@ -543,7 +543,7 @@
         <v>24</v>
       </c>
       <c r="B22" t="n">
-        <v>2.908958354580876</v>
+        <v>2.658605918231318</v>
       </c>
     </row>
   </sheetData>

--- a/code/results/signal_reconstruction/ipc.xlsx
+++ b/code/results/signal_reconstruction/ipc.xlsx
@@ -383,7 +383,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2.184313988853944</v>
+        <v>2.199488538777095</v>
       </c>
     </row>
     <row r="3">
@@ -391,7 +391,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1.886159094700809</v>
+        <v>1.926505998055016</v>
       </c>
     </row>
     <row r="4">
@@ -399,7 +399,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2.161741777228566</v>
+        <v>2.162716768707912</v>
       </c>
     </row>
     <row r="5">
@@ -407,7 +407,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>2.134971957482482</v>
+        <v>2.127502410622359</v>
       </c>
     </row>
     <row r="6">
@@ -415,7 +415,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>2.265207983438145</v>
+        <v>2.251838707917386</v>
       </c>
     </row>
     <row r="7">
@@ -423,7 +423,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2.388832565585126</v>
+        <v>2.405201540074012</v>
       </c>
     </row>
     <row r="8">
@@ -431,7 +431,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1.832837670377314</v>
+        <v>1.828924479393044</v>
       </c>
     </row>
     <row r="9">
@@ -439,7 +439,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1.672161674023858</v>
+        <v>1.685920957457729</v>
       </c>
     </row>
     <row r="10">
@@ -447,7 +447,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1.521127160740514</v>
+        <v>1.52173442213647</v>
       </c>
     </row>
     <row r="11">
@@ -455,7 +455,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1.634850098626581</v>
+        <v>1.631068728650424</v>
       </c>
     </row>
     <row r="12">
@@ -463,7 +463,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1.633760465320453</v>
+        <v>1.655318423829817</v>
       </c>
     </row>
     <row r="13">
@@ -471,7 +471,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1.470056583249274</v>
+        <v>1.503755554560929</v>
       </c>
     </row>
     <row r="14">
@@ -479,7 +479,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>2.059414418759483</v>
+        <v>2.085209508078397</v>
       </c>
     </row>
     <row r="15">
@@ -487,7 +487,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>2.069838129682612</v>
+        <v>2.065956829980797</v>
       </c>
     </row>
     <row r="16">
@@ -495,7 +495,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1.676471650687426</v>
+        <v>1.664747774119225</v>
       </c>
     </row>
     <row r="17">
@@ -503,7 +503,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1.669251038708748</v>
+        <v>1.664587833628723</v>
       </c>
     </row>
     <row r="18">
@@ -511,7 +511,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1.432430522853284</v>
+        <v>1.443363636114659</v>
       </c>
     </row>
     <row r="19">
@@ -519,7 +519,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>1.860164591717093</v>
+        <v>1.846117816994953</v>
       </c>
     </row>
     <row r="20">
@@ -527,7 +527,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1.752263920085888</v>
+        <v>1.745270218282298</v>
       </c>
     </row>
     <row r="21">
@@ -535,7 +535,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1.689741302980548</v>
+        <v>1.695723512637377</v>
       </c>
     </row>
     <row r="22">
@@ -543,7 +543,7 @@
         <v>24</v>
       </c>
       <c r="B22" t="n">
-        <v>2.658605918231318</v>
+        <v>2.616302171363731</v>
       </c>
     </row>
   </sheetData>
